--- a/roll_recipes.xlsx
+++ b/roll_recipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -488,186 +488,2067 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>41</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>38</v>
+      </c>
+      <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="B21" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="B36" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="n">
+        <v>21</v>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="n">
+        <v>25</v>
+      </c>
+      <c r="C47" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="n">
+        <v>34</v>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15</v>
+      </c>
+      <c r="C51" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6</v>
+      </c>
+      <c r="B53" t="n">
+        <v>31</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="n">
+        <v>28</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>38</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="n">
+        <v>25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>34</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13</v>
+      </c>
+      <c r="C62" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="n">
+        <v>31</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="n">
+        <v>28</v>
+      </c>
+      <c r="C66" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>38</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>8</v>
+      </c>
+      <c r="B69" t="n">
+        <v>25</v>
+      </c>
+      <c r="C69" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>8</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>8</v>
+      </c>
+      <c r="B71" t="n">
+        <v>20</v>
+      </c>
+      <c r="C71" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" t="n">
+        <v>37</v>
+      </c>
+      <c r="C72" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>8</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>8</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28</v>
+      </c>
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>38</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>9</v>
+      </c>
+      <c r="B79" t="n">
+        <v>25</v>
+      </c>
+      <c r="C79" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>9</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>9</v>
+      </c>
+      <c r="B81" t="n">
+        <v>34</v>
+      </c>
+      <c r="C81" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>9</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>9</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10</v>
+      </c>
+      <c r="B87" t="n">
+        <v>25</v>
+      </c>
+      <c r="C87" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" t="n">
+        <v>20</v>
+      </c>
+      <c r="C89" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="n">
+        <v>27</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="n">
+        <v>28</v>
+      </c>
+      <c r="C93" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="n">
+        <v>38</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25</v>
+      </c>
+      <c r="C96" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11</v>
+      </c>
+      <c r="B98" t="n">
+        <v>23</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11</v>
+      </c>
+      <c r="B99" t="n">
+        <v>21</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36</v>
+      </c>
+      <c r="C100" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11</v>
+      </c>
+      <c r="B103" t="n">
+        <v>28</v>
+      </c>
+      <c r="C103" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" t="n">
+        <v>38</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>12</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25</v>
+      </c>
+      <c r="C106" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>12</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>12</v>
+      </c>
+      <c r="B108" t="n">
+        <v>34</v>
+      </c>
+      <c r="C108" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>12</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>12</v>
+      </c>
+      <c r="B110" t="n">
+        <v>27</v>
+      </c>
+      <c r="C110" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>12</v>
+      </c>
+      <c r="B111" t="n">
+        <v>33</v>
+      </c>
+      <c r="C111" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>12</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="n">
+        <v>28</v>
+      </c>
+      <c r="C113" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>12</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>12</v>
+      </c>
+      <c r="B115" t="n">
+        <v>38</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>12</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25</v>
+      </c>
+      <c r="C117" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>13</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>13</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>13</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27</v>
+      </c>
+      <c r="C120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" t="n">
+        <v>28</v>
+      </c>
+      <c r="C121" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>13</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>13</v>
+      </c>
+      <c r="B123" t="n">
+        <v>38</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>14</v>
+      </c>
+      <c r="B124" t="n">
+        <v>25</v>
+      </c>
+      <c r="C124" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>14</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>14</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>14</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>14</v>
+      </c>
+      <c r="B128" t="n">
+        <v>36</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>14</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>14</v>
+      </c>
+      <c r="B130" t="n">
+        <v>28</v>
+      </c>
+      <c r="C130" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>14</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>14</v>
+      </c>
+      <c r="B132" t="n">
+        <v>38</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>15</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25</v>
+      </c>
+      <c r="C134" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>15</v>
+      </c>
+      <c r="B135" t="n">
+        <v>19</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>15</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>15</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24</v>
+      </c>
+      <c r="C137" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>15</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>15</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>15</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>15</v>
+      </c>
+      <c r="B141" t="n">
+        <v>28</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>15</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>16</v>
+      </c>
+      <c r="B143" t="n">
+        <v>25</v>
+      </c>
+      <c r="C143" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>16</v>
+      </c>
+      <c r="B144" t="n">
+        <v>19</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>16</v>
+      </c>
+      <c r="B145" t="n">
+        <v>34</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>16</v>
+      </c>
+      <c r="B146" t="n">
+        <v>20</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>16</v>
+      </c>
+      <c r="B147" t="n">
+        <v>13</v>
+      </c>
+      <c r="C147" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>16</v>
+      </c>
+      <c r="B148" t="n">
+        <v>39</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>16</v>
+      </c>
+      <c r="B149" t="n">
+        <v>36</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>16</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>16</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>17</v>
+      </c>
+      <c r="B153" t="n">
+        <v>25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>17</v>
+      </c>
+      <c r="B154" t="n">
+        <v>19</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>17</v>
+      </c>
+      <c r="B155" t="n">
+        <v>36</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>17</v>
+      </c>
+      <c r="B156" t="n">
+        <v>13</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>17</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21</v>
+      </c>
+      <c r="C157" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>17</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>17</v>
+      </c>
+      <c r="B159" t="n">
+        <v>28</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>17</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>18</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>18</v>
+      </c>
+      <c r="B162" t="n">
+        <v>19</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>18</v>
+      </c>
+      <c r="B163" t="n">
+        <v>34</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>18</v>
+      </c>
+      <c r="B164" t="n">
+        <v>20</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>18</v>
+      </c>
+      <c r="B165" t="n">
+        <v>37</v>
+      </c>
+      <c r="C165" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>18</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>18</v>
+      </c>
+      <c r="B167" t="n">
+        <v>28</v>
+      </c>
+      <c r="C167" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>18</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>19</v>
+      </c>
+      <c r="B169" t="n">
+        <v>17</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>19</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>19</v>
+      </c>
+      <c r="B171" t="n">
+        <v>29</v>
+      </c>
+      <c r="C171" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>20</v>
+      </c>
+      <c r="B172" t="n">
+        <v>36</v>
+      </c>
+      <c r="C172" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>20</v>
+      </c>
+      <c r="B173" t="n">
+        <v>40</v>
+      </c>
+      <c r="C173" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>21</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16</v>
+      </c>
+      <c r="C174" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>22</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>22</v>
+      </c>
+      <c r="B176" t="n">
+        <v>19</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>22</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15</v>
+      </c>
+      <c r="C177" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>22</v>
+      </c>
+      <c r="B178" t="n">
+        <v>35</v>
+      </c>
+      <c r="C178" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>22</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>22</v>
+      </c>
+      <c r="B180" t="n">
+        <v>28</v>
+      </c>
+      <c r="C180" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>22</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>23</v>
+      </c>
+      <c r="B182" t="n">
+        <v>25</v>
+      </c>
+      <c r="C182" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>23</v>
+      </c>
+      <c r="B183" t="n">
+        <v>19</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>23</v>
+      </c>
+      <c r="B184" t="n">
+        <v>20</v>
+      </c>
+      <c r="C184" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>23</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>23</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>23</v>
+      </c>
+      <c r="B187" t="n">
+        <v>28</v>
+      </c>
+      <c r="C187" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>23</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>24</v>
+      </c>
+      <c r="B189" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>24</v>
+      </c>
+      <c r="B190" t="n">
+        <v>43</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>24</v>
+      </c>
+      <c r="B191" t="n">
+        <v>29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>24</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/roll_recipes.xlsx
+++ b/roll_recipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,16 +449,24 @@
           <t>amount_per_roll</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +488,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +502,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +516,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -510,21 +530,27 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +558,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -543,21 +572,27 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +600,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +614,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +628,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
         <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +642,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129.21</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +656,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -620,21 +670,27 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +698,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +712,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +726,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +740,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +754,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="24">
@@ -697,21 +768,27 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>140</v>
+        <v>13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.27</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +796,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +810,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="28">
@@ -741,9 +824,12 @@
         <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" t="n">
         <v>16</v>
       </c>
     </row>
@@ -752,10 +838,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>20</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -763,54 +852,69 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
         <v>40</v>
       </c>
+      <c r="D30" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C31" t="n">
         <v>13</v>
       </c>
+      <c r="D31" t="n">
+        <v>4.42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>4</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
         <v>10</v>
       </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>4</v>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C33" t="n">
         <v>30</v>
       </c>
+      <c r="D33" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>20</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +922,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C35" t="n">
         <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +936,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +950,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +964,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C38" t="n">
         <v>20</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +978,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +992,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C41" t="n">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +1020,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +1034,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +1048,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="45">
@@ -928,21 +1062,27 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +1118,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +1132,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="D50" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +1146,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1160,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1174,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1188,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1202,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="56">
@@ -1049,21 +1216,27 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1244,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1258,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D59" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1272,13 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1286,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="D61" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1300,13 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1314,13 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1328,13 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1356,13 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="67">
@@ -1170,21 +1370,27 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1398,13 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1412,13 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1440,13 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1454,13 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
         <v>12</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1468,13 @@
         <v>8</v>
       </c>
       <c r="B74" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C74" t="n">
         <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1482,13 @@
         <v>8</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
         <v>10</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1496,13 @@
         <v>8</v>
       </c>
       <c r="B76" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C76" t="n">
         <v>30</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1510,13 @@
         <v>8</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>20</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1524,13 @@
         <v>8</v>
       </c>
       <c r="B78" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1538,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C79" t="n">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1552,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1566,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C81" t="n">
         <v>40</v>
+      </c>
+      <c r="D81" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1580,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1594,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D83" t="n">
+        <v>129.12</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1608,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
         <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1622,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
         <v>30</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1636,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
         <v>20</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1650,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C87" t="n">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1664,13 @@
         <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="89">
@@ -1412,9 +1678,12 @@
         <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C89" t="n">
+        <v>20</v>
+      </c>
+      <c r="D89" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1423,10 +1692,13 @@
         <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
         <v>20</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1706,13 @@
         <v>10</v>
       </c>
       <c r="B91" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26.75</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1720,13 @@
         <v>10</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="D92" t="n">
+        <v>129.21</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1734,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1748,13 @@
         <v>10</v>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="95">
@@ -1478,21 +1762,27 @@
         <v>10</v>
       </c>
       <c r="B95" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1790,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D97" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1804,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1818,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="D99" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1832,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C100" t="n">
         <v>40</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1846,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1860,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="D102" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1874,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1888,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -1588,32 +1902,41 @@
         <v>11</v>
       </c>
       <c r="B105" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>140</v>
+        <v>20</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1944,13 @@
         <v>12</v>
       </c>
       <c r="B108" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C108" t="n">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1958,13 @@
         <v>12</v>
       </c>
       <c r="B109" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1972,13 @@
         <v>12</v>
       </c>
       <c r="B110" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C110" t="n">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1986,13 @@
         <v>12</v>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C111" t="n">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +2000,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="D112" t="n">
+        <v>129.21</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +2014,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C113" t="n">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +2028,13 @@
         <v>12</v>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +2042,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="116">
@@ -1709,32 +2056,41 @@
         <v>12</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +2098,13 @@
         <v>13</v>
       </c>
       <c r="B119" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +2112,13 @@
         <v>13</v>
       </c>
       <c r="B120" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +2126,13 @@
         <v>13</v>
       </c>
       <c r="B121" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +2140,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C122" t="n">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="D122" t="n">
+        <v>54.75</v>
       </c>
     </row>
     <row r="123">
@@ -1786,32 +2154,41 @@
         <v>13</v>
       </c>
       <c r="B123" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B124" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +2196,13 @@
         <v>14</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C126" t="n">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +2210,13 @@
         <v>14</v>
       </c>
       <c r="B127" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C127" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +2224,13 @@
         <v>14</v>
       </c>
       <c r="B128" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C128" t="n">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D128" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +2238,13 @@
         <v>14</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C129" t="n">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +2252,13 @@
         <v>14</v>
       </c>
       <c r="B130" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +2266,13 @@
         <v>14</v>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C131" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +2280,13 @@
         <v>14</v>
       </c>
       <c r="B132" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="133">
@@ -1896,21 +2294,27 @@
         <v>14</v>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C134" t="n">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +2322,13 @@
         <v>15</v>
       </c>
       <c r="B135" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +2336,13 @@
         <v>15</v>
       </c>
       <c r="B136" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C136" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +2350,13 @@
         <v>15</v>
       </c>
       <c r="B137" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C137" t="n">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +2364,13 @@
         <v>15</v>
       </c>
       <c r="B138" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +2378,13 @@
         <v>15</v>
       </c>
       <c r="B139" t="n">
+        <v>18</v>
+      </c>
+      <c r="C139" t="n">
         <v>12</v>
       </c>
-      <c r="C139" t="n">
-        <v>10</v>
+      <c r="D139" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +2392,13 @@
         <v>15</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C140" t="n">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +2406,13 @@
         <v>15</v>
       </c>
       <c r="B141" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="142">
@@ -1995,21 +2420,27 @@
         <v>15</v>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C142" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>140</v>
+        <v>20</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2448,13 @@
         <v>16</v>
       </c>
       <c r="B144" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C145" t="n">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="146">
@@ -2039,9 +2476,12 @@
         <v>16</v>
       </c>
       <c r="B146" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C146" t="n">
+        <v>20</v>
+      </c>
+      <c r="D146" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2050,10 +2490,13 @@
         <v>16</v>
       </c>
       <c r="B147" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C147" t="n">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2504,13 @@
         <v>16</v>
       </c>
       <c r="B148" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D148" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2518,13 @@
         <v>16</v>
       </c>
       <c r="B149" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.77</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2532,13 @@
         <v>16</v>
       </c>
       <c r="B150" t="n">
+        <v>44</v>
+      </c>
+      <c r="C150" t="n">
         <v>3</v>
       </c>
-      <c r="C150" t="n">
-        <v>15</v>
+      <c r="D150" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2546,13 @@
         <v>16</v>
       </c>
       <c r="B151" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C151" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D151" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="152">
@@ -2105,21 +2560,27 @@
         <v>16</v>
       </c>
       <c r="B152" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C152" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2588,13 @@
         <v>17</v>
       </c>
       <c r="B154" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5</v>
+        <v>50</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2602,13 @@
         <v>17</v>
       </c>
       <c r="B155" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2616,13 @@
         <v>17</v>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C156" t="n">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2630,13 @@
         <v>17</v>
       </c>
       <c r="B157" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C157" t="n">
         <v>20</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2644,13 @@
         <v>17</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2658,13 @@
         <v>17</v>
       </c>
       <c r="B159" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C159" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="160">
@@ -2193,21 +2672,27 @@
         <v>17</v>
       </c>
       <c r="B160" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C160" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B161" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>140</v>
+        <v>20</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2700,13 @@
         <v>18</v>
       </c>
       <c r="B162" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5</v>
+        <v>70</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2714,13 @@
         <v>18</v>
       </c>
       <c r="B163" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C163" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2728,13 @@
         <v>18</v>
       </c>
       <c r="B164" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C164" t="n">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D164" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2742,13 @@
         <v>18</v>
       </c>
       <c r="B165" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C165" t="n">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2756,13 @@
         <v>18</v>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C166" t="n">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="D166" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2770,13 @@
         <v>18</v>
       </c>
       <c r="B167" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C167" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="168">
@@ -2281,21 +2784,27 @@
         <v>18</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C168" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B169" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2812,13 @@
         <v>19</v>
       </c>
       <c r="B170" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="171">
@@ -2314,241 +2826,671 @@
         <v>19</v>
       </c>
       <c r="B171" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C171" t="n">
-        <v>490</v>
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B172" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C172" t="n">
-        <v>400</v>
+        <v>20</v>
+      </c>
+      <c r="D172" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B173" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C173" t="n">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B174" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>670</v>
+        <v>35</v>
+      </c>
+      <c r="D174" t="n">
+        <v>17.15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B175" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C175" t="n">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="D175" t="n">
+        <v>47.12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B176" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="D176" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B177" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C177" t="n">
         <v>30</v>
       </c>
+      <c r="D177" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B178" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C178" t="n">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C179" t="n">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B180" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C180" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C181" t="n">
         <v>20</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B182" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C182" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B183" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B184" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C184" t="n">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B185" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C186" t="n">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B187" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C187" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C188" t="n">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D188" t="n">
+        <v>25.68</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B189" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C189" t="n">
-        <v>300</v>
+        <v>26</v>
+      </c>
+      <c r="D189" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B190" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B191" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
+        <v>20</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15</v>
+      </c>
+      <c r="D192" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>20</v>
+      </c>
+      <c r="B193" t="n">
+        <v>34</v>
+      </c>
+      <c r="C193" t="n">
+        <v>30</v>
+      </c>
+      <c r="D193" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>20</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>20</v>
+      </c>
+      <c r="B195" t="n">
+        <v>48</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>20</v>
+      </c>
+      <c r="B196" t="n">
+        <v>31</v>
+      </c>
+      <c r="C196" t="n">
+        <v>70</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>20</v>
+      </c>
+      <c r="B197" t="n">
         <v>24</v>
       </c>
-      <c r="B192" t="n">
-        <v>4</v>
-      </c>
-      <c r="C192" t="n">
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>20</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15</v>
+      </c>
+      <c r="C198" t="n">
+        <v>26</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>20</v>
+      </c>
+      <c r="B199" t="n">
+        <v>40</v>
+      </c>
+      <c r="C199" t="n">
+        <v>26</v>
+      </c>
+      <c r="D199" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>20</v>
+      </c>
+      <c r="B200" t="n">
+        <v>53</v>
+      </c>
+      <c r="C200" t="n">
+        <v>70</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>20</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>20</v>
+      </c>
+      <c r="B202" t="n">
+        <v>44</v>
+      </c>
+      <c r="C202" t="n">
+        <v>25</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>20</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15</v>
+      </c>
+      <c r="D203" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>20</v>
+      </c>
+      <c r="B204" t="n">
+        <v>34</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>20</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>20</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>20</v>
+      </c>
+      <c r="B206" t="n">
+        <v>48</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>20</v>
+      </c>
+      <c r="B207" t="n">
+        <v>23</v>
+      </c>
+      <c r="C207" t="n">
+        <v>300</v>
+      </c>
+      <c r="D207" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>20</v>
+      </c>
+      <c r="B208" t="n">
+        <v>53</v>
+      </c>
+      <c r="C208" t="n">
+        <v>70</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>20</v>
+      </c>
+      <c r="B209" t="n">
+        <v>35</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>20</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5</v>
+      </c>
+      <c r="C210" t="n">
         <v>280</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>21</v>
+      </c>
+      <c r="B211" t="n">
+        <v>22</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D211" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>21</v>
+      </c>
+      <c r="B212" t="n">
+        <v>32</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>21</v>
+      </c>
+      <c r="B213" t="n">
+        <v>35</v>
+      </c>
+      <c r="C213" t="n">
+        <v>490</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>22</v>
+      </c>
+      <c r="B214" t="n">
+        <v>45</v>
+      </c>
+      <c r="C214" t="n">
+        <v>600</v>
+      </c>
+      <c r="D214" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>22</v>
+      </c>
+      <c r="B215" t="n">
+        <v>50</v>
+      </c>
+      <c r="C215" t="n">
+        <v>100</v>
+      </c>
+      <c r="D215" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>23</v>
+      </c>
+      <c r="B216" t="n">
+        <v>20</v>
+      </c>
+      <c r="C216" t="n">
+        <v>670</v>
+      </c>
+      <c r="D216" t="n">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>23</v>
+      </c>
+      <c r="B217" t="n">
+        <v>6</v>
+      </c>
+      <c r="C217" t="n">
+        <v>120</v>
+      </c>
+      <c r="D217" t="n">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>23</v>
+      </c>
+      <c r="B218" t="n">
+        <v>38</v>
+      </c>
+      <c r="C218" t="n">
+        <v>250</v>
+      </c>
+      <c r="D218" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
